--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Urban_Soil_Surface_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Urban_Soil_Surface_mass_flows.xlsx
@@ -454,13 +454,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.01989704111361293</v>
+        <v>7.173791549909988E-30</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05815936094106713</v>
+        <v>2.096910438516114E-29</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5.803535377488149E-17</v>
+        <v>2.092439414126954E-44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -480,13 +480,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.004426214831646466</v>
+        <v>1.085305907103524E-30</v>
       </c>
       <c r="D3">
-        <v>0.0004373752183236669</v>
+        <v>1.072442089058735E-31</v>
       </c>
       <c r="E3">
-        <v>0.01293789486218174</v>
+        <v>3.172366062988177E-30</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.291030873241163E-17</v>
+        <v>3.165601956244065E-45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -506,13 +506,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.002312846780220595</v>
+        <v>4.724100676349406E-31</v>
       </c>
       <c r="D4">
-        <v>0.002285433274082369</v>
+        <v>4.668107272896908E-31</v>
       </c>
       <c r="E4">
-        <v>0.006760487146011095</v>
+        <v>1.380861982386761E-30</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6.746072461264804E-18</v>
+        <v>1.3779177137676E-45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -532,13 +532,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.000383933174598619</v>
+        <v>7.840866860464034E-32</v>
       </c>
       <c r="D5">
-        <v>0.003793825253604001</v>
+        <v>7.74793132593293E-31</v>
       </c>
       <c r="E5">
-        <v>0.001122242646594011</v>
+        <v>2.291897590323544E-31</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.119849805130058E-18</v>
+        <v>2.287010815077652E-46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00107271479417231</v>
+        <v>2.160068184860726E-31</v>
       </c>
       <c r="D6">
-        <v>0.1060000214959326</v>
+        <v>2.134465519370269E-29</v>
       </c>
       <c r="E6">
-        <v>0.003135562043866197</v>
+        <v>6.313912933249146E-31</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.128876410510405E-18</v>
+        <v>6.300450432325373E-46</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -584,13 +584,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1.156738282904693E-22</v>
+        <v>1.304089766154492E-22</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.381164009545959E-21</v>
+        <v>3.811874689118481E-21</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.373954704621554E-36</v>
+        <v>3.803747024536139E-36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -610,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>3.415644330930685E-23</v>
+        <v>2.868800764009127E-23</v>
       </c>
       <c r="D8">
-        <v>3.376284361756738E-25</v>
+        <v>2.835742313334075E-25</v>
       </c>
       <c r="E8">
-        <v>9.983981555578947E-22</v>
+        <v>8.385549295963613E-22</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.962693748424194E-37</v>
+        <v>8.367669659938103E-37</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -636,13 +636,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>2.070356608138133E-23</v>
+        <v>1.906848116239122E-23</v>
       </c>
       <c r="D9">
-        <v>2.04581795004337E-24</v>
+        <v>1.884247423305785E-24</v>
       </c>
       <c r="E9">
-        <v>6.051684597819321E-22</v>
+        <v>5.573746730425661E-22</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6.038781219145933E-37</v>
+        <v>5.561862409038825E-37</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -662,13 +662,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>7.685212302086778E-24</v>
+        <v>9.232744214815683E-24</v>
       </c>
       <c r="D10">
-        <v>7.594121698695384E-24</v>
+        <v>9.123311162295117E-24</v>
       </c>
       <c r="E10">
-        <v>2.246399520579939E-22</v>
+        <v>2.698745507937039E-22</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.241609756143735E-37</v>
+        <v>2.692991253122674E-37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -688,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.902322810180088E-22</v>
+        <v>5.526889724111309E-22</v>
       </c>
       <c r="D11">
-        <v>3.856069702874368E-21</v>
+        <v>5.461381093505629E-21</v>
       </c>
       <c r="E11">
-        <v>1.140655032725175E-20</v>
+        <v>1.615518470865224E-20</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.138222932442179E-35</v>
+        <v>1.612073868581929E-35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -714,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.502940202931337E-28</v>
+        <v>1.775314911890729E-28</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.388862107958182E-26</v>
+        <v>2.59463656317397E-27</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.385900781501981E-41</v>
+        <v>2.589104289052064E-42</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -740,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>3.066894194892004E-29</v>
+        <v>4.210357186149053E-29</v>
       </c>
       <c r="D13">
-        <v>2.272907386593413E-29</v>
+        <v>3.120339777137902E-29</v>
       </c>
       <c r="E13">
-        <v>4.482289739220405E-28</v>
+        <v>6.153469801912532E-28</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.472732618241257E-43</v>
+        <v>6.140349397217622E-43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -766,13 +766,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>1.956494080743219E-29</v>
+        <v>2.681835810518359E-29</v>
       </c>
       <c r="D14">
-        <v>5.799912961267505E-29</v>
+        <v>7.950146351328639E-29</v>
       </c>
       <c r="E14">
-        <v>2.859431328790785E-28</v>
+        <v>3.919523913078316E-28</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.8533344602859E-43</v>
+        <v>3.9111667192338E-43</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>2.928255684775406E-29</v>
+        <v>3.918134701885327E-29</v>
       </c>
       <c r="D15">
-        <v>7.378547181469181E-28</v>
+        <v>9.872820160999686E-28</v>
       </c>
       <c r="E15">
-        <v>4.279668477492034E-28</v>
+        <v>5.72638436643636E-28</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.270543384789493E-43</v>
+        <v>5.714174591667839E-43</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -818,13 +818,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>8.723506348574141E-30</v>
+        <v>1.215252103903267E-29</v>
       </c>
       <c r="D16">
-        <v>2.159337340230789E-27</v>
+        <v>3.008124417977028E-27</v>
       </c>
       <c r="E16">
-        <v>1.27494724341525E-28</v>
+        <v>1.776100409646976E-28</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.272228805796028E-43</v>
+        <v>1.772313415170117E-43</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -844,13 +844,13 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>4.045568805476405E-21</v>
+        <v>5.624630120241189E-21</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.365052120324037E-19</v>
+        <v>3.288176281641159E-19</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.360009365270041E-34</v>
+        <v>3.28116524479331E-34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -870,13 +870,13 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>8.888479655135435E-22</v>
+        <v>1.234518153822326E-21</v>
       </c>
       <c r="D18">
-        <v>2.634970650145164E-23</v>
+        <v>3.659702478492827E-23</v>
       </c>
       <c r="E18">
-        <v>5.19623288235228E-20</v>
+        <v>7.217031566299576E-20</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.185153494543426E-35</v>
+        <v>7.20164343929254E-35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -896,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>6.117846121169629E-22</v>
+        <v>8.485807342653865E-22</v>
       </c>
       <c r="D19">
-        <v>7.254401065080909E-23</v>
+        <v>1.006227495843757E-22</v>
       </c>
       <c r="E19">
-        <v>3.576511891505093E-20</v>
+        <v>4.96082939467926E-20</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.568886066576511E-35</v>
+        <v>4.950251933283355E-35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -922,13 +922,13 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>1.825016804324044E-20</v>
+        <v>2.433617217588345E-20</v>
       </c>
       <c r="D20">
-        <v>1.839453114961395E-20</v>
+        <v>2.452867700127614E-20</v>
       </c>
       <c r="E20">
-        <v>1.066910506342333E-18</v>
+        <v>1.422700202928972E-18</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.064635643855462E-33</v>
+        <v>1.419666727016543E-33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -948,13 +948,13 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>3.309651429907254E-20</v>
+        <v>4.610601176485249E-20</v>
       </c>
       <c r="D21">
-        <v>3.276963931787566E-19</v>
+        <v>4.565064955986278E-19</v>
       </c>
       <c r="E21">
-        <v>1.934832531148576E-18</v>
+        <v>2.695371803750808E-18</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.930707088651458E-33</v>
+        <v>2.689624742335561E-33</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.683897384536814E-17</v>
+        <v>1.239611184737257E-29</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3.745923750559902E-18</v>
+        <v>7.748539097786703E-31</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1.957371702840206E-18</v>
+        <v>3.065863142246586E-32</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.249242181400718E-19</v>
+        <v>1.515880054515326E-32</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.1102082983339712</v>
+        <v>2.219205330551368E-29</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>7.916720353939606E-22</v>
+        <v>1.1261721563963E-22</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4.519400385574624E-22</v>
+        <v>4.55525614978306E-23</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>2.407920491861817E-22</v>
+        <v>3.036463004524159E-23</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>4.711580091505795E-23</v>
+        <v>1.516155149553344E-23</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.565285231114414E-20</v>
+        <v>2.216925477456902E-20</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.2832937492153E-26</v>
+        <v>3.157622591123431E-30</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>1.155880266555679E-30</v>
+        <v>2.281521509323375E-31</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>2.525646723513433E-33</v>
+        <v>3.367908605495537E-33</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>1.087137255732337E-27</v>
+        <v>1.448695578863607E-27</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>2.295555570920888E-27</v>
+        <v>3.197886979980758E-27</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>6.39652111555754E-23</v>
+        <v>8.359676497522087E-23</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>7.889283476177616E-24</v>
+        <v>9.409726761523015E-24</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>9.019900202915463E-25</v>
+        <v>1.112470524411943E-24</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>1.087170385876251E-18</v>
+        <v>1.448739727326202E-18</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>2.295625438626407E-18</v>
+        <v>3.197984311114291E-18</v>
       </c>
       <c r="D21">
         <v>0</v>
